--- a/biology/Médecine/Jacques-Louis_Binet/Jacques-Louis_Binet.xlsx
+++ b/biology/Médecine/Jacques-Louis_Binet/Jacques-Louis_Binet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques-Louis Binet, né le 1er mai 1932 à Paris, est un médecin hématologue français à qui l'on doit une classification des leucémies lymphoïdes chroniques qui porte son nom. Élu membre de l'Académie nationale de médecine le 21 mai 1996 (section Médecine), il en fut secrétaire adjoint (1999-2002), puis secrétaire perpétuel (2003[1]-2010). Raymond Ardaillou lui a succédé.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques-Louis Binet, né le 1er mai 1932 à Paris, est un médecin hématologue français à qui l'on doit une classification des leucémies lymphoïdes chroniques qui porte son nom. Élu membre de l'Académie nationale de médecine le 21 mai 1996 (section Médecine), il en fut secrétaire adjoint (1999-2002), puis secrétaire perpétuel (2003-2010). Raymond Ardaillou lui a succédé.
 </t>
         </is>
       </c>
@@ -513,12 +525,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Médecine
-Ancien élève de Jean Bernard[2] et de Georges Mathé, et surtout Marcel Bessis Jacques-Louis Binet, professeur de médecine spécialisé en immunologie, hématologie et cancérologie à l'université Pierre-et-Marie-Curie, a été chef du service d'hématologie de l'hôpital de la Pitié-Salpétrière de 1980 à 1997[3], dont il fut président du comité d'éthique (1989-1991).
-Avec Maurice Tubiana, il dirige la collection « Ouverture médicale » chez l'éditeur Hermann, qui met à disposition du grand public les connaissances et avis de spécialistes[4].
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancien élève de Jean Bernard et de Georges Mathé, et surtout Marcel Bessis Jacques-Louis Binet, professeur de médecine spécialisé en immunologie, hématologie et cancérologie à l'université Pierre-et-Marie-Curie, a été chef du service d'hématologie de l'hôpital de la Pitié-Salpétrière de 1980 à 1997, dont il fut président du comité d'éthique (1989-1991).
+Avec Maurice Tubiana, il dirige la collection « Ouverture médicale » chez l'éditeur Hermann, qui met à disposition du grand public les connaissances et avis de spécialistes.
 Il a aussi été coproducteur d'émissions scientifiques à France Culture (à partir de 1981) et membre du conseil de rédaction, responsable pour la médecine, de la Sept, une chaîne de télévision (1988-1991).
-Architecture &amp; Beaux-Arts
-Jacques-Louis Binet est un passionné d'art contemporain[5] qu'il a enseigné à l’École du Louvre. Cet ancien président du conseil d'orientation du Centre national d'art contemporain (CNAC) est aussi un des plus fins connaisseurs français de l'architecture hospitalière et de son histoire. Il est membre correspondant de l'Académie des Beaux-Arts (section membres libres) depuis le 10 avril 2002.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jacques-Louis_Binet</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques-Louis_Binet</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Architecture &amp; Beaux-Arts</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques-Louis Binet est un passionné d'art contemporain qu'il a enseigné à l’École du Louvre. Cet ancien président du conseil d'orientation du Centre national d'art contemporain (CNAC) est aussi un des plus fins connaisseurs français de l'architecture hospitalière et de son histoire. Il est membre correspondant de l'Académie des Beaux-Arts (section membres libres) depuis le 10 avril 2002.
 </t>
         </is>
       </c>
